--- a/Maximum Sensitivity/Reference_Tracking_Optimization/src/Time Delay and Lag5_ms2_latex.xlsx
+++ b/Maximum Sensitivity/Reference_Tracking_Optimization/src/Time Delay and Lag5_ms2_latex.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>parametri</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>$C(s) =\frac{2.345\,s^4+6.686\,s^3+8.824\,s^2+5.286\,s+1.152}{0.9126\,s^4+2.307\,s^3+1.839\,s^2+0.4434\,s}$</t>
+  </si>
+  <si>
+    <t>$C(s) =\frac{0.1398\,s^2+0.4583\,s+0.8658}{0.03463\,s^2+0.453\,s}$</t>
+  </si>
+  <si>
+    <t>$C(s) =\frac{0.4143\,s^4+1.429\,s^3+2.375\,s^2+2.288\,s+0.8911}{0.1567\,s^4+0.6624\,s^3+0.9333\,s^2+0.4383\,s}$</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,16 +135,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,53 +161,53 @@
   <dimension ref="A1:E20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.046875" customWidth="true"/>
-    <col min="2" max="2" width="52.046875" customWidth="true"/>
-    <col min="3" max="3" width="60.82421875" customWidth="true"/>
-    <col min="4" max="4" width="72.15625" customWidth="true"/>
-    <col min="5" max="5" width="92.26953125" customWidth="true"/>
+    <col min="1" max="1" width="26" customWidth="true"/>
+    <col min="2" max="2" width="59" customWidth="true"/>
+    <col min="3" max="3" width="63" customWidth="true"/>
+    <col min="4" max="4" width="74.7109375" customWidth="true"/>
+    <col min="5" max="5" width="99.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>62.858185671833553</v>
+        <v>62.674053123259547</v>
       </c>
       <c r="C3">
         <v>235.57997613043747</v>
@@ -206,15 +216,15 @@
         <v>166.44496390397211</v>
       </c>
       <c r="E3">
-        <v>33.176215736920938</v>
+        <v>59.433972614827177</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.0964517423850251</v>
+        <v>0.86578110093097949</v>
       </c>
       <c r="C4">
         <v>6.7601334600593184</v>
@@ -223,15 +233,15 @@
         <v>4.4585431936982811</v>
       </c>
       <c r="E4">
-        <v>1.1515369354951557</v>
+        <v>0.89107199250800517</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.4705807465178564</v>
+        <v>0.45295532145454204</v>
       </c>
       <c r="C5">
         <v>1.861924929648904</v>
@@ -240,15 +250,15 @@
         <v>7.1021397489810179</v>
       </c>
       <c r="E5">
-        <v>0.4434304815677923</v>
+        <v>0.43829142990942555</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>33.889542568178747</v>
+        <v>0.27998058932538716</v>
       </c>
       <c r="C6">
         <v>0.39370388968740699</v>
@@ -257,19 +267,19 @@
         <v>0.40893142255738102</v>
       </c>
       <c r="E6">
-        <v>1.3988913584500666</v>
+        <v>0.50345631999369866</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0.55715267472945518</v>
+        <v>0.6270100647733251</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -286,7 +296,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -303,11 +313,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.6982862938377095</v>
+        <v>3.6624960141447138</v>
       </c>
       <c r="C10">
         <v>16.222375069598719</v>
@@ -316,23 +326,23 @@
         <v>36.129690930396485</v>
       </c>
       <c r="E10">
-        <v>0.62937629641946191</v>
+        <v>0.6924873703487171</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0.57901227154324464</v>
+        <v>0.89414012425277456</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>20.769017024341551</v>
+        <v>821.83235730194474</v>
       </c>
       <c r="C12">
         <v>1.7887972416960514</v>
@@ -341,15 +351,15 @@
         <v>1.9109170970332856</v>
       </c>
       <c r="E12">
-        <v>21.49399007254128</v>
+        <v>1831.6434368205103</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.50079107346323015</v>
+        <v>1.7104384625818299</v>
       </c>
       <c r="C13">
         <v>1.3560076554511318</v>
@@ -358,15 +368,15 @@
         <v>0.94685344721260822</v>
       </c>
       <c r="E13">
-        <v>1.2284470512931727</v>
+        <v>1.6469724173204756</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11088.812402751186</v>
+        <v>11259.060965279104</v>
       </c>
       <c r="C14">
         <v>6.8986943974286898</v>
@@ -374,16 +384,13 @@
       <c r="D14">
         <v>4.5132258595867674</v>
       </c>
-      <c r="E14">
-        <v>240.69541792381315</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>98.803960436073268</v>
+        <v>99.47663444943457</v>
       </c>
       <c r="C15">
         <v>5.8680918705892315</v>
@@ -392,15 +399,15 @@
         <v>5.2956827039995158</v>
       </c>
       <c r="E15">
-        <v>96.69907653762526</v>
+        <v>93.562291549606712</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5.3549396722752158</v>
+        <v>-0</v>
       </c>
       <c r="C16">
         <v>8.9431263267353209e-15</v>
@@ -413,11 +420,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.9880396043607327</v>
+        <v>1.9947663444943458</v>
       </c>
       <c r="C17">
         <v>1.0586809187058923</v>
@@ -426,15 +433,15 @@
         <v>1.0529565406163659</v>
       </c>
       <c r="E17">
-        <v>1.9669907653762526</v>
+        <v>1.9356229154960671</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>47.97239879169819</v>
+        <v>5.6641011787723929</v>
       </c>
       <c r="C18">
         <v>3.6461671573756576</v>
@@ -443,15 +450,15 @@
         <v>2.7051637225909406</v>
       </c>
       <c r="E18">
-        <v>4.8453117281221418</v>
+        <v>5.5907114659858621</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.0005322815803877</v>
+        <v>1.003423666166626</v>
       </c>
       <c r="C19">
         <v>2.2726324532603113</v>
@@ -460,15 +467,15 @@
         <v>2.1001668553621409</v>
       </c>
       <c r="E19">
-        <v>1.2566853744571109</v>
+        <v>1.0020758518711672</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.054233583495571724</v>
+        <v>0.06213119686801459</v>
       </c>
       <c r="C20">
         <v>59.620960578142032</v>
@@ -477,7 +484,7 @@
         <v>62.690425095588282</v>
       </c>
       <c r="E20">
-        <v>2.5905428494415244</v>
+        <v>0.031539443111801568</v>
       </c>
     </row>
   </sheetData>
